--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1175581.445554987</v>
+        <v>1144338.574492955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1737911.484358932</v>
+        <v>2083705.798332966</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4541732.173075098</v>
+        <v>3522967.67585558</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9987288.559206422</v>
+        <v>10396671.14092294</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>184.5808806410313</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>162.1879012502436</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>26.94389492651078</v>
+        <v>44.07056651555934</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>42.94681372917885</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>95.09774413911212</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>81.12200652863734</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>110.2306370730125</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>81.25819606329431</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>356.681260877744</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>110.2306370730116</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183512</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>56.30297834754209</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>81.25819606329408</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>179.7188787253433</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.73106715232846</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>21.11366634588075</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>26.44011237376423</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>156.0447118074296</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>147.1163355383938</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>79.37563130433468</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.25307783771848</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>147.1163355383938</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>159.2830655961208</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>14.73664328357096</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>156.5918462324806</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431772</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>33.35146980185857</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.562624396424707</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.7144732959481</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1125.191652989356</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C2" t="n">
-        <v>1125.191652989356</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D2" t="n">
-        <v>766.9259543826058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W2" t="n">
-        <v>1498.657411250436</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X2" t="n">
-        <v>1125.191652989356</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y2" t="n">
-        <v>1125.191652989356</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4427,16 +4427,16 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.959449965771</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C5" t="n">
-        <v>797.9969330253591</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D5" t="n">
-        <v>439.7312344186087</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2669.933035536898</v>
+        <v>2343.842892433717</v>
       </c>
       <c r="W5" t="n">
-        <v>2317.164380266784</v>
+        <v>1991.074237163603</v>
       </c>
       <c r="X5" t="n">
-        <v>1943.698622005704</v>
+        <v>1617.608478902523</v>
       </c>
       <c r="Y5" t="n">
-        <v>1553.559290029893</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>402.6523129118473</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>402.6523129118473</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>233.6525126501797</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>781.1711973675267</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C8" t="n">
-        <v>412.2086804271149</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2615.207670282225</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2284.144782938654</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1931.37612766854</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1557.91036940746</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.771037431648</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4989,16 +4989,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>1709.338245913162</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.981643776797</v>
+        <v>1340.375728972751</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>982.1100303660003</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>596.321777767756</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>185.3358729781484</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>185.3358729781484</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>185.3358729781484</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>3212.31183148429</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2859.543176214176</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>2486.077417953096</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>2095.938085977284</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673427</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>403.4201994324305</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>907.7817392985492</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940987</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E13" t="n">
-        <v>430.0992512117056</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F13" t="n">
-        <v>430.0992512117056</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>530.0898119577583</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.175505447095</v>
+        <v>1709.338245913161</v>
       </c>
       <c r="C14" t="n">
-        <v>825.2129885066831</v>
+        <v>1340.37572897275</v>
       </c>
       <c r="D14" t="n">
-        <v>825.2129885066831</v>
+        <v>982.1100303659994</v>
       </c>
       <c r="E14" t="n">
-        <v>825.2129885066831</v>
+        <v>596.3217777677551</v>
       </c>
       <c r="F14" t="n">
-        <v>414.2270837170756</v>
+        <v>185.3358729781475</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>185.3358729781475</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.37471882786</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.37471882786</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>3543.37471882786</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>3212.311831484289</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.380435748108</v>
+        <v>2859.543176214175</v>
       </c>
       <c r="X14" t="n">
-        <v>1970.914677487028</v>
+        <v>2486.077417953095</v>
       </c>
       <c r="Y14" t="n">
-        <v>1580.775345511217</v>
+        <v>2095.938085977283</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>522.079451289326</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>659.3090493050199</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1299.854398772125</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1973.060091024907</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2132.572403693668</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>556.5197556509872</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>556.5197556509872</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0123447940985</v>
+        <v>556.5197556509872</v>
       </c>
       <c r="E16" t="n">
-        <v>430.0992512117053</v>
+        <v>499.6480603504397</v>
       </c>
       <c r="F16" t="n">
-        <v>430.0992512117053</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>198.5034697522944</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866326</v>
+        <v>175.0397247222304</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>359.8727196230487</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422867</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783909</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669898</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>784.5093065490046</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>556.5197556509872</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>556.5197556509872</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2196.616170759897</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.653653819485</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1469.387955212735</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1083.599702614491</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>672.6137978248832</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>255.5260160613107</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3699.589756331025</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3346.821101060911</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>2973.355342799831</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2583.216010824019</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835159</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>522.0794512893252</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>928.295669107395</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1568.841018574499</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.497760227163</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2316.933768979885</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2425.623396507183</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>228.2464382268554</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C19" t="n">
-        <v>228.2464382268554</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>228.2464382268554</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1066.117317846237</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>858.6770330986426</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>858.6770330986426</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>858.6770330986426</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>858.6770330986426</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="W19" t="n">
-        <v>858.6770330986426</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X19" t="n">
-        <v>630.6874822006253</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y19" t="n">
-        <v>409.8949030570951</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1916.217283289125</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>1547.254766348713</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1188.989067741963</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>803.2008151437186</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>392.2149103541111</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403564</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>3672.882572115102</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>3419.190868860253</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3419.190868860253</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3066.422213590138</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>2692.956455329058</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2302.817123353247</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835159</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893252</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1253.562877620961</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273625</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026347</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3136.042313615198</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C22" t="n">
-        <v>3136.042313615198</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>3136.042313615198</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>3136.042313615198</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>3136.042313615198</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>2978.421392597592</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>2824.166749497357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>2699.655074871683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>2699.655074871683</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>2800.703004467292</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>2985.53599936811</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>3190.805600087348</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>3396.628964923451</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>3570.72386031205</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>3696.171436910665</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>3699.589756331025</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>3569.111795050428</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>3361.671510302833</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>3136.042313615198</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>3136.042313615198</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="V22" t="n">
-        <v>3136.042313615198</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="W22" t="n">
-        <v>3136.042313615198</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X22" t="n">
-        <v>3136.042313615198</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y22" t="n">
-        <v>3136.042313615198</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,31 +5974,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,31 +6056,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4741.167820987512</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4452.03918220107</v>
+        <v>1083.87834655132</v>
       </c>
       <c r="V25" t="n">
-        <v>4197.354693995183</v>
+        <v>1083.87834655132</v>
       </c>
       <c r="W25" t="n">
-        <v>3907.937523958222</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="X25" t="n">
-        <v>3679.947973060205</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="26">
@@ -6205,28 +6205,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4503.13917884751</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919603</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507268</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924875</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426964</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4549.85945949167</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="V28" t="n">
-        <v>4549.85945949167</v>
+        <v>1350.313911428212</v>
       </c>
       <c r="W28" t="n">
-        <v>4549.85945949167</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X28" t="n">
-        <v>4549.85945949167</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y28" t="n">
-        <v>4549.85945949167</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,7 +6457,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,16 +6466,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3525.606699852205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3832.926833132166</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4162.789460796199</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1133.156678913841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.156678913841</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1133.156678913841</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>1133.156678913841</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.156678913841</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698577</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3941.006808105544</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C34" t="n">
-        <v>3772.070625177637</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>3621.953985765301</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>3474.040892182908</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>4571.437402977331</v>
+        <v>1340.742688504892</v>
       </c>
       <c r="X34" t="n">
-        <v>4343.447852079314</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="Y34" t="n">
-        <v>4122.655272935784</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,40 +6922,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>4860.854573014292</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>4860.854573014292</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>4684.78764367775</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,13 +7177,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775526</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170014</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095315</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.474758001779</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.79489128174</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945773</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164469</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169049</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>330.8254548799443</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>102.8359039819269</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>549.3807322743211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>549.3807322743211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>549.3807322743211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>401.467638691928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>401.467638691928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>233.2923170117486</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045608</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>731.0291971045608</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.0291971045608</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928383</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>186.2236012992081</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>271.7036563660369</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617264079</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,19 +9719,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>253.737160350474</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,13 +9965,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>127.6461250100641</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978322</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>50.62661940943656</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22564,7 +22564,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.86743971662654</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.0530674671694</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22761,16 +22761,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22789,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22840,10 +22840,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>300.8083635436241</v>
+        <v>283.6816919545756</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22950,22 +22950,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>113.2240751126163</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,13 +23026,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>259.5852974815708</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>170.102160979652</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23229,19 +23229,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>89.79231049789962</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>8.265403820877836</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>86.05160619575661</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>60.69561706280189</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>57.10290914305097</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>204.810247002204</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>90.13098429902708</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>86.05160619575683</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176901</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>135.3220053498723</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.442114515463</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>231.0239769779473</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>186.2117507412018</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.87606474714079</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>139.1210168601835</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>206.8617210942427</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.5789023442188</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>139.1210168601835</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>7.963755502507013</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>130.6844047393603</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>129.9311521041104</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.27839330891754</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>192.3581855871786</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.0220289556701</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>14.19935507158803</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>734997.6231445118</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734997.6231445117</v>
+        <v>851553.6159369532</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734997.6231445118</v>
+        <v>851553.615936953</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>851553.6159369524</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>851553.6159369523</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>979408.0102536818</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165457</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="C2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="E2" t="n">
-        <v>303610.2405165454</v>
+        <v>354622.4384779897</v>
       </c>
       <c r="F2" t="n">
-        <v>303610.2405165454</v>
+        <v>354622.4384779896</v>
       </c>
       <c r="G2" t="n">
-        <v>354622.4384779895</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="H2" t="n">
-        <v>354622.4384779894</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="I2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="K2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245944</v>
       </c>
       <c r="M2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="N2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="O2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="P2" t="n">
         <v>410580.5127245943</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>248146.7686188445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236417.6520004549</v>
+        <v>263762.889265909</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990992</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>62453.05588965346</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60309.58713704776</v>
+        <v>69864.88484991083</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>27086.83710496504</v>
+        <v>24740.78594361632</v>
       </c>
       <c r="F4" t="n">
-        <v>27086.83710496504</v>
+        <v>24740.78594361632</v>
       </c>
       <c r="G4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26444,7 +26444,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26453,7 +26453,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.5432836015</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-396303.5538663734</v>
+        <v>-402371.9676121929</v>
       </c>
       <c r="C6" t="n">
-        <v>193664.3253481709</v>
+        <v>187595.9116023518</v>
       </c>
       <c r="D6" t="n">
-        <v>193664.3253481709</v>
+        <v>187595.9116023516</v>
       </c>
       <c r="E6" t="n">
-        <v>227291.9253481709</v>
+        <v>8924.079169986464</v>
       </c>
       <c r="F6" t="n">
-        <v>227291.9253481709</v>
+        <v>257070.8477888311</v>
       </c>
       <c r="G6" t="n">
-        <v>24292.4572503169</v>
+        <v>31681.09866337625</v>
       </c>
       <c r="H6" t="n">
-        <v>260710.1092507717</v>
+        <v>295443.9879292854</v>
       </c>
       <c r="I6" t="n">
-        <v>40886.41958990775</v>
+        <v>295443.9879292854</v>
       </c>
       <c r="J6" t="n">
-        <v>119995.3599964139</v>
+        <v>119020.7687366925</v>
       </c>
       <c r="K6" t="n">
-        <v>296418.579189007</v>
+        <v>295443.9879292853</v>
       </c>
       <c r="L6" t="n">
-        <v>296418.5791890069</v>
+        <v>295443.9879292854</v>
       </c>
       <c r="M6" t="n">
-        <v>296418.579189007</v>
+        <v>232990.9320396319</v>
       </c>
       <c r="N6" t="n">
-        <v>296418.5791890068</v>
+        <v>295443.9879292853</v>
       </c>
       <c r="O6" t="n">
-        <v>236108.9920519591</v>
+        <v>225579.1030793745</v>
       </c>
       <c r="P6" t="n">
-        <v>296418.579189007</v>
+        <v>295443.9879292853</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380648</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.897439082758</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>215.732436120977</v>
+        <v>236.9063051160355</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160366</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>250.6101663282026</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282006</v>
+        <v>290.3162041708151</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708166</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>250.6101663282028</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282004</v>
+        <v>290.3162041708151</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>250.6101663282026</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282006</v>
+        <v>290.3162041708151</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651557</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>303.486976877902</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074823</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>425.7102483359669</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810515</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>43.95082441182839</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512821</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900652</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947076</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080801</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308315</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.08398246702897147</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838207013</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784129</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490376</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676926</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>89.61489115104779</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937816</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522793</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390808</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308304</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937806</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308304</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937806</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391275</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040862</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517161</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513601</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233104</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>119.8578301584804</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452624</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>138.6157555714079</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>680.0057497502854</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>296.0111038520351</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>233.0438950105732</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295332</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.452847899353401</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584802</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>332.755963945262</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>410.3194119374443</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122262</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067311</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528265</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105729</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584802</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>332.755963945262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>536.1008625915821</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36685,13 +36685,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36837,7 +36837,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36925,16 +36925,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>410.0098272511722</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958074</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>361.0509964599028</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1144338.574492955</v>
+        <v>1170702.81926314</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332966</v>
+        <v>1737911.484358931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.67585558</v>
+        <v>4541732.173075103</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10396671.14092294</v>
+        <v>9987288.559206421</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>158.1532781090174</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>184.5808806410313</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="4">
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>78.31629253725382</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>44.07056651555934</v>
+        <v>15.5863391041184</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>67.00913094683261</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>110.2306370730125</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>137.9475420663029</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>110.2306370730116</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958668</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183512</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>56.30297834754209</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>88.80932687628595</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>240.7746496380415</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958681</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.90078060183535</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>21.11366634588075</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>47.77654101934842</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>313.7242846018851</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>45.4458084395868</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.90078060183534</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2250,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>147.1163355383938</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>51.71313947703997</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>10.34713777957311</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>79.37563130433468</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>147.1163355383938</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>119.848213188964</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>16.83551518996303</v>
       </c>
       <c r="W34" t="n">
-        <v>156.5918462324806</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>26.4107078574875</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>195.8155841663235</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>130.0008656485268</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.9054987607761</v>
+        <v>940.9219833362311</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>571.9594663958194</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>213.6937677890689</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2510.703757037383</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2256.941971675474</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1925.879084331904</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W2" t="n">
-        <v>1573.11042906179</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X2" t="n">
-        <v>1199.64467080071</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y2" t="n">
-        <v>809.505338824898</v>
+        <v>940.9219833362311</v>
       </c>
     </row>
     <row r="3">
@@ -4406,37 +4406,37 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870806</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>290.7987205870806</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.8693068625894</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>471.9067899221776</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>471.9067899221776</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>471.9067899221776</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2343.842892433717</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="W5" t="n">
-        <v>1991.074237163603</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X5" t="n">
-        <v>1617.608478902523</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y5" t="n">
-        <v>1227.469146926711</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4758,10 +4758,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>121.6289726757509</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>121.6289726757509</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>121.6289726757509</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>121.6289726757509</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>121.6289726757509</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>290.5651556036578</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1709.338245913162</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C11" t="n">
-        <v>1340.375728972751</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>982.1100303660003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>596.321777767756</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>185.3358729781484</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>185.3358729781484</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>185.3358729781484</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>262.631694140357</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604024</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406602</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389914</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.93754444976</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216837</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556132</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331033</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331033</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>3543.374718827861</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>3543.374718827861</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>3543.374718827861</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>3212.31183148429</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2859.543176214176</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>2486.077417953096</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y11" t="n">
-        <v>2095.938085977284</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322777</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363042</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662066</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>403.4201994324305</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>907.7817392985492</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1253.562877620958</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273623</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026346</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507182</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.33685256765</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222305</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230489</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422868</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783911</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>945.06058056699</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165606</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>784.7743001636452</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>530.0898119577583</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>240.6726419207977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.99179512662066</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1709.338245913161</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="C14" t="n">
-        <v>1340.37572897275</v>
+        <v>551.5496320092391</v>
       </c>
       <c r="D14" t="n">
-        <v>982.1100303659994</v>
+        <v>193.2839334024886</v>
       </c>
       <c r="E14" t="n">
-        <v>596.3217777677551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>185.3358729781475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>185.3358729781475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662064</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662064</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>262.631694140357</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604024</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406602</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389914</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.93754444976</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216837</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556131</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331032</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331032</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.37471882786</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>3543.37471882786</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>3543.37471882786</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>3212.311831484289</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W14" t="n">
-        <v>2859.543176214175</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X14" t="n">
-        <v>2486.077417953095</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y14" t="n">
-        <v>2095.938085977283</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322777</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363042</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662064</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835163</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>522.079451289326</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3090493050199</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1299.854398772125</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1973.060091024907</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2132.572403693668</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507182</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>556.5197556509872</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>556.5197556509872</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>556.5197556509872</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>499.6480603504397</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>352.7581128525293</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>352.7581128525293</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>198.5034697522944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662064</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662064</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222304</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230487</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422867</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783909</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669898</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165605</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585965</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585965</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585965</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U16" t="n">
-        <v>1073.926476585965</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V16" t="n">
-        <v>1073.926476585965</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W16" t="n">
-        <v>784.5093065490046</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X16" t="n">
-        <v>556.5197556509872</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y16" t="n">
-        <v>556.5197556509872</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>1650.753421684037</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>1650.753421684037</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556124</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>3484.789894598735</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3153.727007255165</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>2800.95835198505</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>2427.49259372397</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2037.353261748159</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>522.0794512893249</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3090493050179</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>838.8063856596217</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1512.012077912403</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2001.655628026348</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>797.6777933451685</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>797.6777933451685</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>647.5611539328328</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6480603504397</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>352.7581128525293</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230477</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422851</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783889</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669873</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165602</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="U19" t="n">
-        <v>874.927113122792</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="V19" t="n">
-        <v>853.6001774198821</v>
+        <v>1073.926476585962</v>
       </c>
       <c r="W19" t="n">
-        <v>564.1830073829216</v>
+        <v>1025.667344243186</v>
       </c>
       <c r="X19" t="n">
-        <v>564.1830073829216</v>
+        <v>797.6777933451685</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.1830073829216</v>
+        <v>797.6777933451685</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>666.0988071604006</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331024</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827852</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095563</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>3074.883153840714</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3074.883153840714</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>2722.1144985706</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>2722.1144985706</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2331.975166594788</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>403.4201994324297</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>907.7817392985474</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1548.327088765651</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1746.983830418315</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2296.419839171037</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>709.5645560538728</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>540.6283731259659</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>390.5117337136302</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>943.448515305365</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>943.448515305365</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>943.448515305365</v>
       </c>
       <c r="U22" t="n">
-        <v>1350.313911428212</v>
+        <v>943.448515305365</v>
       </c>
       <c r="V22" t="n">
-        <v>1350.313911428212</v>
+        <v>943.448515305365</v>
       </c>
       <c r="W22" t="n">
-        <v>1060.896741391251</v>
+        <v>943.448515305365</v>
       </c>
       <c r="X22" t="n">
-        <v>1060.896741391251</v>
+        <v>891.2130208841126</v>
       </c>
       <c r="Y22" t="n">
-        <v>1060.896741391251</v>
+        <v>891.2130208841126</v>
       </c>
     </row>
     <row r="23">
@@ -5968,37 +5968,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6010,28 +6010,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405893</v>
+        <v>444.7802503911732</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>275.8440674632664</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>275.8440674632664</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.87834655132</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1083.87834655132</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>794.4611765143592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X25" t="n">
-        <v>794.4611765143592</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y25" t="n">
-        <v>573.668597370829</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="26">
@@ -6205,28 +6205,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6375,13 +6375,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,25 +6408,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U28" t="n">
-        <v>1350.313911428212</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V28" t="n">
-        <v>1350.313911428212</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W28" t="n">
-        <v>1060.896741391251</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X28" t="n">
-        <v>1060.896741391251</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y28" t="n">
         <v>1060.896741391251</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>633.8358010296332</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="32">
@@ -6679,37 +6679,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>710.3120936331045</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="W34" t="n">
-        <v>1340.742688504892</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="X34" t="n">
-        <v>1112.753137606874</v>
+        <v>1281.990689574502</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.9605584633442</v>
+        <v>1061.198110430972</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>589.0764827350422</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>438.9598433227064</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7131,16 +7131,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>758.0126656629491</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,13 +7195,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>244.1070389581962</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7614,7 +7614,7 @@
         <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,16 +8777,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>167.9634363311152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>186.2236012992081</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.4658964092776</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>6.233205181928739</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>230.798428956908</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9956,25 +9956,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>96.03744927814705</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>50.62661940943656</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>223.7770919632444</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>31.86743971662654</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>88.9935097217971</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22761,7 +22761,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22843,13 +22843,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>283.6816919545756</v>
+        <v>312.1659193660165</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22998,13 +22998,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23181,7 +23181,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23196,13 +23196,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>89.16175789496253</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23235,10 +23235,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>8.265403820877836</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176898</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>60.69561706280189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>243.9828280059589</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>204.810247002204</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>90.13098429902708</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176901</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,28 +23697,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>136.9003285127512</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>113.9083919826414</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752157</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,19 +23901,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176923</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>231.0239769779473</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>238.7464573172426</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>69.0095570615955</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176921</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>139.1210168601835</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>173.9965159119972</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>136.0868248669961</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>206.8617210942427</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>92.830481864506</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>139.1210168601835</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>105.8614422000731</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25134,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>235.302128133865</v>
       </c>
       <c r="W34" t="n">
-        <v>129.9311521041104</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>120.0232547890817</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>156.5221326880642</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>734997.6231445116</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>851553.6159369532</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>851553.615936953</v>
+        <v>734997.6231445116</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979408.010253682</v>
+        <v>851553.6159369523</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>979408.0102536819</v>
+        <v>851553.6159369524</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="14">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="D2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="D2" t="n">
-        <v>303610.2405165453</v>
-      </c>
       <c r="E2" t="n">
-        <v>354622.4384779897</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="F2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="G2" t="n">
         <v>354622.4384779896</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>354622.4384779896</v>
+      </c>
+      <c r="I2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="J2" t="n">
         <v>410580.5127245942</v>
-      </c>
-      <c r="H2" t="n">
-        <v>410580.5127245944</v>
-      </c>
-      <c r="I2" t="n">
-        <v>410580.5127245944</v>
-      </c>
-      <c r="J2" t="n">
-        <v>410580.5127245944</v>
       </c>
       <c r="K2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="L2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="M2" t="n">
         <v>410580.5127245943</v>
@@ -26355,7 +26355,7 @@
         <v>410580.5127245943</v>
       </c>
       <c r="P2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188445</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.889265909</v>
+        <v>236417.6520004545</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255532.1595990995</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965346</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991083</v>
+        <v>60309.58713704782</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>24740.78594361632</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="F4" t="n">
-        <v>24740.78594361632</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361634</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360151</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.5432836015</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402371.9676121929</v>
+        <v>-396910.3952409556</v>
       </c>
       <c r="C6" t="n">
-        <v>187595.9116023518</v>
+        <v>193057.483973589</v>
       </c>
       <c r="D6" t="n">
-        <v>187595.9116023516</v>
+        <v>193057.4839735891</v>
       </c>
       <c r="E6" t="n">
-        <v>8924.079169986464</v>
+        <v>226685.0839735889</v>
       </c>
       <c r="F6" t="n">
-        <v>257070.8477888311</v>
+        <v>226685.0839735891</v>
       </c>
       <c r="G6" t="n">
-        <v>31681.09866337625</v>
+        <v>23928.53110412325</v>
       </c>
       <c r="H6" t="n">
-        <v>295443.9879292854</v>
+        <v>260346.1831045778</v>
       </c>
       <c r="I6" t="n">
-        <v>295443.9879292854</v>
+        <v>40788.96046393535</v>
       </c>
       <c r="J6" t="n">
-        <v>119020.7687366925</v>
+        <v>119897.9008704417</v>
       </c>
       <c r="K6" t="n">
-        <v>295443.9879292853</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="L6" t="n">
-        <v>295443.9879292854</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="M6" t="n">
-        <v>232990.9320396319</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="N6" t="n">
-        <v>295443.9879292853</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="O6" t="n">
-        <v>225579.1030793745</v>
+        <v>236011.5329259869</v>
       </c>
       <c r="P6" t="n">
-        <v>295443.9879292853</v>
+        <v>296321.1200630347</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="E3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="E3" t="n">
-        <v>593.4761003380651</v>
-      </c>
-      <c r="F3" t="n">
-        <v>593.4761003380648</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>593.4761003380631</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>593.4761003380632</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827582</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>924.897439082758</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.897439082756</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.897439082756</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209784</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160355</v>
+        <v>215.7324361209766</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.9063051160369</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282026</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708151</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282028</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708151</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282026</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708151</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>91.9798486765156</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712531</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074824</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840366</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182841</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070428</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308316</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207014</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889953</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104781</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198249</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055157</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651557</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.486976877902</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>376.502430971253</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074823</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359669</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822518</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>343.08584954267</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457576</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411496</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810515</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840366</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182839</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070428</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512821</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842453</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900652</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947076</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671573</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080801</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308315</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888314</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207013</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784129</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490376</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>124.338107579024</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889953</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676926</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.770216344109</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104779</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937816</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>18.6507161368536</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522793</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198242</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>24.4339180405515</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651532</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937395</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779011</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712519</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074811</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359657</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822506</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426689</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457568</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411492</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810499</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358593</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840362</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985297</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182826</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>120.6044214847379</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070422</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512813</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>323.4444746842444</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>332.0050874900642</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947067</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671566</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607452</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080778</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784619</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>5.1453258133083</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897123</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.07020280388831</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206986</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>32.1839170478412</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490355</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889948</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676921</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714132</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720916</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104753</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937802</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685355</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>4.57268470752278</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.05837469839390791</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198242</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651533</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937395</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359657</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>343.085849542669</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411492</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840362</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182828</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070422</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>323.4444746842444</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947067</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671566</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607452</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>79.2570535508078</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784619</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308301</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897125</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206988</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490356</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720916</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104754</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937803</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685355</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.05837469839390792</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040863</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233106</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588832</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312129</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452625</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>349.2738770933423</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406732</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105733</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353429</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391275</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040862</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517161</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730421</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513601</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233104</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588831</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312128</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584804</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452624</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>138.6157555714079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502854</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1235481502632</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>296.0111038520351</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105732</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493114</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295332</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233376</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353401</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040853</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517151</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730409</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513589</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233092</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>433.651561958882</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>247.652485631212</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452618</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>138.6157555714071</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>181.3104407622261</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>680.0057497502844</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>494.5894445595399</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>428.2502711927635</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531408</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295327</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854529</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353145</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040853</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>633.644109151359</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588821</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>332.7559639452618</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>554.9858674269918</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>340.5859315097343</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>22.96660727472371</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531408</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854529</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353159</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>429.2320226761599</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>361.0509964599028</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>441.2361441450414</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
